--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H2">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I2">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J2">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4080956666666667</v>
+        <v>0.02536566666666666</v>
       </c>
       <c r="N2">
-        <v>1.224287</v>
+        <v>0.076097</v>
       </c>
       <c r="O2">
-        <v>0.8036643492337111</v>
+        <v>0.04869294909818511</v>
       </c>
       <c r="P2">
-        <v>0.8036643492337111</v>
+        <v>0.04869294909818511</v>
       </c>
       <c r="Q2">
-        <v>0.8124519527396667</v>
+        <v>0.0666922140461111</v>
       </c>
       <c r="R2">
-        <v>7.312067574657001</v>
+        <v>0.6002299264149999</v>
       </c>
       <c r="S2">
-        <v>0.09023909669323348</v>
+        <v>0.006886719542806417</v>
       </c>
       <c r="T2">
-        <v>0.09023909669323348</v>
+        <v>0.006886719542806416</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H3">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I3">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J3">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.06052133333333332</v>
+        <v>0.4080956666666666</v>
       </c>
       <c r="N3">
-        <v>0.181564</v>
+        <v>1.224287</v>
       </c>
       <c r="O3">
-        <v>0.1191848920263545</v>
+        <v>0.783396777436295</v>
       </c>
       <c r="P3">
-        <v>0.1191848920263545</v>
+        <v>0.783396777436295</v>
       </c>
       <c r="Q3">
-        <v>0.1204881096893333</v>
+        <v>1.072978049829444</v>
       </c>
       <c r="R3">
-        <v>1.084392987204</v>
+        <v>9.656802448464999</v>
       </c>
       <c r="S3">
-        <v>0.01338262298955248</v>
+        <v>0.1107970249668691</v>
       </c>
       <c r="T3">
-        <v>0.01338262298955248</v>
+        <v>0.1107970249668691</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.990837</v>
+        <v>2.629231666666667</v>
       </c>
       <c r="H4">
-        <v>5.972511</v>
+        <v>7.887695</v>
       </c>
       <c r="I4">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047068</v>
       </c>
       <c r="J4">
-        <v>0.1122845585713437</v>
+        <v>0.1414315557047067</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03917666666666667</v>
+        <v>0.08746966666666667</v>
       </c>
       <c r="N4">
-        <v>0.11753</v>
+        <v>0.262409</v>
       </c>
       <c r="O4">
-        <v>0.07715075873993439</v>
+        <v>0.1679102734655197</v>
       </c>
       <c r="P4">
-        <v>0.07715075873993439</v>
+        <v>0.1679102734655197</v>
       </c>
       <c r="Q4">
-        <v>0.07799435753666666</v>
+        <v>0.2299780174727778</v>
       </c>
       <c r="R4">
-        <v>0.70194921783</v>
+        <v>2.069802157255</v>
       </c>
       <c r="S4">
-        <v>0.008662838888557772</v>
+        <v>0.0237478111950312</v>
       </c>
       <c r="T4">
-        <v>0.008662838888557772</v>
+        <v>0.02374781119503119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,40 +729,40 @@
         <v>34.28296</v>
       </c>
       <c r="I5">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J5">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4080956666666667</v>
+        <v>0.02536566666666666</v>
       </c>
       <c r="N5">
-        <v>1.224287</v>
+        <v>0.076097</v>
       </c>
       <c r="O5">
-        <v>0.8036643492337111</v>
+        <v>0.04869294909818511</v>
       </c>
       <c r="P5">
-        <v>0.8036643492337111</v>
+        <v>0.04869294909818511</v>
       </c>
       <c r="Q5">
-        <v>4.663575805502223</v>
+        <v>0.2898700452355555</v>
       </c>
       <c r="R5">
-        <v>41.97218224952001</v>
+        <v>2.60883040712</v>
       </c>
       <c r="S5">
-        <v>0.5179836993804207</v>
+        <v>0.02993233519009681</v>
       </c>
       <c r="T5">
-        <v>0.5179836993804207</v>
+        <v>0.02993233519009681</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>34.28296</v>
       </c>
       <c r="I6">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J6">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.06052133333333332</v>
+        <v>0.4080956666666666</v>
       </c>
       <c r="N6">
-        <v>0.181564</v>
+        <v>1.224287</v>
       </c>
       <c r="O6">
-        <v>0.1191848920263545</v>
+        <v>0.783396777436295</v>
       </c>
       <c r="P6">
-        <v>0.1191848920263545</v>
+        <v>0.783396777436295</v>
       </c>
       <c r="Q6">
-        <v>0.6916168166044443</v>
+        <v>4.663575805502222</v>
       </c>
       <c r="R6">
-        <v>6.22455134944</v>
+        <v>41.97218224952</v>
       </c>
       <c r="S6">
-        <v>0.07681792945143309</v>
+        <v>0.4815665381405055</v>
       </c>
       <c r="T6">
-        <v>0.07681792945143311</v>
+        <v>0.4815665381405055</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,40 +853,40 @@
         <v>34.28296</v>
       </c>
       <c r="I7">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="J7">
-        <v>0.6445274073365515</v>
+        <v>0.6147160060020365</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.03917666666666667</v>
+        <v>0.08746966666666667</v>
       </c>
       <c r="N7">
-        <v>0.11753</v>
+        <v>0.262409</v>
       </c>
       <c r="O7">
-        <v>0.07715075873993439</v>
+        <v>0.1679102734655197</v>
       </c>
       <c r="P7">
-        <v>0.07715075873993439</v>
+        <v>0.1679102734655197</v>
       </c>
       <c r="Q7">
-        <v>0.4476973654222222</v>
+        <v>0.9995730278488889</v>
       </c>
       <c r="R7">
-        <v>4.0292762888</v>
+        <v>8.996157250640001</v>
       </c>
       <c r="S7">
-        <v>0.0497257785046977</v>
+        <v>0.103217132671434</v>
       </c>
       <c r="T7">
-        <v>0.0497257785046977</v>
+        <v>0.103217132671434</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H8">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I8">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J8">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.4080956666666667</v>
+        <v>0.02536566666666666</v>
       </c>
       <c r="N8">
-        <v>1.224287</v>
+        <v>0.076097</v>
       </c>
       <c r="O8">
-        <v>0.8036643492337111</v>
+        <v>0.04869294909818511</v>
       </c>
       <c r="P8">
-        <v>0.8036643492337111</v>
+        <v>0.04869294909818511</v>
       </c>
       <c r="Q8">
-        <v>1.667131740619555</v>
+        <v>0.10773584969</v>
       </c>
       <c r="R8">
-        <v>15.004185665576</v>
+        <v>0.96962264721</v>
       </c>
       <c r="S8">
-        <v>0.1851684420658069</v>
+        <v>0.01112493552857601</v>
       </c>
       <c r="T8">
-        <v>0.185168442065807</v>
+        <v>0.01112493552857601</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H9">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I9">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J9">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06052133333333332</v>
+        <v>0.4080956666666666</v>
       </c>
       <c r="N9">
-        <v>0.181564</v>
+        <v>1.224287</v>
       </c>
       <c r="O9">
-        <v>0.1191848920263545</v>
+        <v>0.783396777436295</v>
       </c>
       <c r="P9">
-        <v>0.1191848920263545</v>
+        <v>0.783396777436295</v>
       </c>
       <c r="Q9">
-        <v>0.247238684519111</v>
+        <v>1.73330880599</v>
       </c>
       <c r="R9">
-        <v>2.225148160672</v>
+        <v>15.59977925391</v>
       </c>
       <c r="S9">
-        <v>0.02746081843165545</v>
+        <v>0.1789835859951606</v>
       </c>
       <c r="T9">
-        <v>0.02746081843165546</v>
+        <v>0.1789835859951606</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.085149333333333</v>
+        <v>4.24731</v>
       </c>
       <c r="H10">
-        <v>12.255448</v>
+        <v>12.74193</v>
       </c>
       <c r="I10">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="J10">
-        <v>0.230405196202076</v>
+        <v>0.2284711798035388</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03917666666666667</v>
+        <v>0.08746966666666667</v>
       </c>
       <c r="N10">
-        <v>0.11753</v>
+        <v>0.262409</v>
       </c>
       <c r="O10">
-        <v>0.07715075873993439</v>
+        <v>0.1679102734655197</v>
       </c>
       <c r="P10">
-        <v>0.07715075873993439</v>
+        <v>0.1679102734655197</v>
       </c>
       <c r="Q10">
-        <v>0.1600425337155555</v>
+        <v>0.37151078993</v>
       </c>
       <c r="R10">
-        <v>1.44038280344</v>
+        <v>3.34359710937</v>
       </c>
       <c r="S10">
-        <v>0.01777593570461361</v>
+        <v>0.03836265827980213</v>
       </c>
       <c r="T10">
-        <v>0.01777593570461362</v>
+        <v>0.03836265827980213</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,55 +1086,55 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.2859396666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.8578190000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.01538125848971795</v>
+      </c>
+      <c r="J11">
+        <v>0.01538125848971795</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="L11">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G11">
-        <v>0.2266433333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.6799299999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.01278283789002879</v>
-      </c>
-      <c r="J11">
-        <v>0.01278283789002879</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
-        <v>0.4080956666666667</v>
+        <v>0.02536566666666666</v>
       </c>
       <c r="N11">
-        <v>1.224287</v>
+        <v>0.076097</v>
       </c>
       <c r="O11">
-        <v>0.8036643492337111</v>
+        <v>0.04869294909818511</v>
       </c>
       <c r="P11">
-        <v>0.8036643492337111</v>
+        <v>0.04869294909818511</v>
       </c>
       <c r="Q11">
-        <v>0.09249216221222221</v>
+        <v>0.007253050271444445</v>
       </c>
       <c r="R11">
-        <v>0.8324294599099999</v>
+        <v>0.06527745244300001</v>
       </c>
       <c r="S11">
-        <v>0.01027311109425001</v>
+        <v>0.0007489588367058638</v>
       </c>
       <c r="T11">
-        <v>0.01027311109425001</v>
+        <v>0.0007489588367058638</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,25 +1148,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H12">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I12">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J12">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.06052133333333332</v>
+        <v>0.4080956666666666</v>
       </c>
       <c r="N12">
-        <v>0.181564</v>
+        <v>1.224287</v>
       </c>
       <c r="O12">
-        <v>0.1191848920263545</v>
+        <v>0.783396777436295</v>
       </c>
       <c r="P12">
-        <v>0.1191848920263545</v>
+        <v>0.783396777436295</v>
       </c>
       <c r="Q12">
-        <v>0.01371675672444444</v>
+        <v>0.1166907388947778</v>
       </c>
       <c r="R12">
-        <v>0.12345081052</v>
+        <v>1.050216650053</v>
       </c>
       <c r="S12">
-        <v>0.001523521153713474</v>
+        <v>0.0120496283337597</v>
       </c>
       <c r="T12">
-        <v>0.001523521153713475</v>
+        <v>0.0120496283337597</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,55 +1210,55 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2266433333333333</v>
+        <v>0.2859396666666667</v>
       </c>
       <c r="H13">
-        <v>0.6799299999999999</v>
+        <v>0.8578190000000001</v>
       </c>
       <c r="I13">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="J13">
-        <v>0.01278283789002879</v>
+        <v>0.01538125848971795</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.03917666666666667</v>
+        <v>0.08746966666666667</v>
       </c>
       <c r="N13">
-        <v>0.11753</v>
+        <v>0.262409</v>
       </c>
       <c r="O13">
-        <v>0.07715075873993439</v>
+        <v>0.1679102734655197</v>
       </c>
       <c r="P13">
-        <v>0.07715075873993439</v>
+        <v>0.1679102734655197</v>
       </c>
       <c r="Q13">
-        <v>0.00887913032222222</v>
+        <v>0.02501104733011111</v>
       </c>
       <c r="R13">
-        <v>0.07991217289999999</v>
+        <v>0.225099425971</v>
       </c>
       <c r="S13">
-        <v>0.000986205642065303</v>
+        <v>0.002582671319252388</v>
       </c>
       <c r="T13">
-        <v>0.000986205642065303</v>
+        <v>0.002582671319252388</v>
       </c>
     </row>
   </sheetData>
